--- a/va_facility_data_2025-02-20/Jamaica Plain VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jamaica%20Plain%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jamaica Plain VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jamaica%20Plain%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R1845dcb91d2c40de9ece60177ab655cb"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1d18be4231f34c65a694a470f7c9262a"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6b50bd6c6a46431b8ca03735a67d091b"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R0e342fff80f0446aa80c0b7699b40ad6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc7bcd91f033845b5a7ab4a79d10a661f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3bb80f8ccbd5425eb9aeed1fb5bbce24"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd269bed601a74346b31e25b9a6e0c1ad"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2ba45a96f20e40e5b271976e30a55643"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7c479c2a47594987b4543bc993436ce3"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R83d7e96a9756496692313ef82291803b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R66aa68d99ceb4790ac36c7288934047d"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R128d7efe2b0d473d9819eb2296621970"/>
   </x:sheets>
 </x:workbook>
 </file>
